--- a/DOC/ガントチャート.xlsx
+++ b/DOC/ガントチャート.xlsx
@@ -3,22 +3,39 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A21EA2-D0DD-4CCA-9D73-91C7A65AA4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ABB271-B95E-4221-BBC7-2604FE3F6419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレ" sheetId="14" r:id="rId1"/>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId2"/>
     <sheet name="作業の流れ的な" sheetId="15" r:id="rId3"/>
+    <sheet name="作業タスク" sheetId="18" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="ActualBeyond">PeriodInActual*(#REF!&gt;0)</definedName>
+    <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
+    <definedName name="PercentCompleteBeyond">(#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!)*(#REF!&gt;0))*((#REF!&lt;(INT(#REF!+#REF!*#REF!)))+(#REF!=#REF!))*(#REF!&gt;0)</definedName>
+    <definedName name="period_selected">#REF!</definedName>
+    <definedName name="PeriodInActual">#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!-1)</definedName>
+    <definedName name="PeriodInPlan">#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!-1)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">プロジェクトのスケジュール!$4:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">作業タスク!$4:$6</definedName>
+    <definedName name="TitleRegion..BO60">#REF!</definedName>
     <definedName name="タスク_開始" localSheetId="1">プロジェクトのスケジュール!$E1</definedName>
+    <definedName name="タスク_開始" localSheetId="3">作業タスク!$E1</definedName>
     <definedName name="タスク_終了" localSheetId="1">プロジェクトのスケジュール!$F1</definedName>
+    <definedName name="タスク_終了" localSheetId="3">作業タスク!$F1</definedName>
     <definedName name="タスク_進捗状況" localSheetId="1">プロジェクトのスケジュール!$D1</definedName>
+    <definedName name="タスク_進捗状況" localSheetId="3">作業タスク!$D1</definedName>
+    <definedName name="プロジェクトの開始" localSheetId="3">作業タスク!$E$3</definedName>
     <definedName name="プロジェクトの開始">プロジェクトのスケジュール!$E$3</definedName>
+    <definedName name="計画">PeriodInPlan*(#REF!&gt;0)</definedName>
     <definedName name="今日" localSheetId="1">TODAY()</definedName>
+    <definedName name="今日" localSheetId="3">TODAY()</definedName>
+    <definedName name="実績">(PeriodInActual*(#REF!&gt;0))*PeriodInPlan</definedName>
+    <definedName name="週表示" localSheetId="3">作業タスク!$E$4</definedName>
     <definedName name="週表示">プロジェクトのスケジュール!$E$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -31,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -339,12 +356,59 @@
     </rPh>
     <phoneticPr fontId="29"/>
   </si>
+  <si>
+    <t>機能一覧の洗い出し</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>かえさん</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>赤木/かえさん</t>
+    <rPh sb="0" eb="2">
+      <t>アカギ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>機能一覧の相談</t>
+    <rPh sb="0" eb="4">
+      <t>キノウイチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>画面の設計</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -352,8 +416,9 @@
     <numFmt numFmtId="178" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="179" formatCode="aaa\,\ yyyy/m/d"/>
     <numFmt numFmtId="180" formatCode="d"/>
+    <numFmt numFmtId="181" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,8 +636,68 @@
       <name val="Segoe UI Symbol"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="7"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="42"/>
+      <color theme="7"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="46">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,8 +955,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="7"/>
+        <bgColor theme="9" tint="0.59996337778862885"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="7"/>
+        <bgColor theme="7" tint="0.59996337778862885"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1156,8 +1316,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -1228,6 +1438,61 @@
     <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="28" applyFill="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="46" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="47" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="48" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="49" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="50" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="51" borderId="31">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="51" borderId="31" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1469,8 +1734,17 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="45" borderId="0" xfId="54" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="17" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1483,17 +1757,8 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="45" borderId="0" xfId="54" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="74">
     <cellStyle name="20% - アクセント 1" xfId="31" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 3" xfId="39" builtinId="38" customBuiltin="1"/>
@@ -1519,38 +1784,87 @@
     <cellStyle name="アクセント 4" xfId="42" builtinId="41" customBuiltin="1"/>
     <cellStyle name="アクセント 5" xfId="46" builtinId="45" customBuiltin="1"/>
     <cellStyle name="アクセント 6" xfId="50" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="アクティビティ" xfId="57" xr:uid="{53A53864-45E0-4139-94DA-108275ADEAA5}"/>
     <cellStyle name="タイトル" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="タイトル 2" xfId="73" xr:uid="{F7A3DF03-2F88-4610-A2DB-D5E7EA3A7FE3}"/>
     <cellStyle name="タスク" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
     <cellStyle name="チェック セル" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="20" builtinId="28" customBuiltin="1"/>
     <cellStyle name="パーセント" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="プロジェクトのヘッダー" xfId="61" xr:uid="{07E5DD18-F4DC-4DC2-A22E-8343FD5AD856}"/>
     <cellStyle name="プロジェクトの開始" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
     <cellStyle name="メモ" xfId="27" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="ラベル" xfId="63" xr:uid="{30E87E62-E780-4BD5-B9E5-2D27C3A62A34}"/>
     <cellStyle name="リンク セル" xfId="24" builtinId="24" customBuiltin="1"/>
     <cellStyle name="悪い" xfId="19" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="完了率" xfId="56" xr:uid="{E6B01CF0-FBEA-400B-8855-2CF91FF17A2A}"/>
+    <cellStyle name="完了率 (%)" xfId="66" xr:uid="{0372AFA0-0C04-4BA5-8B5F-C37B5DEE2CB4}"/>
+    <cellStyle name="完了率 (計画超過) 凡例" xfId="64" xr:uid="{4843F8B6-2EFD-4BAA-8FAE-A63E53EE4D58}"/>
+    <cellStyle name="期間のヘッダー" xfId="58" xr:uid="{99F179D3-98AB-43F1-8A9B-013567279F25}"/>
+    <cellStyle name="期間の強調表示コントロール" xfId="70" xr:uid="{9C33C887-197E-49C6-8DB2-63F35DDECE10}"/>
+    <cellStyle name="期間の値" xfId="69" xr:uid="{A7653B8D-6FEE-405E-89AF-7D17DEF82B93}"/>
+    <cellStyle name="期間の凡例" xfId="68" xr:uid="{B209B2ED-73FF-415A-836F-A362C336EC57}"/>
     <cellStyle name="計算" xfId="23" builtinId="22" customBuiltin="1"/>
     <cellStyle name="警告文" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="桁区切り" xfId="14" builtinId="6" customBuiltin="1"/>
     <cellStyle name="桁区切り [0.00]" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="見出し 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 1 2" xfId="72" xr:uid="{5E08ADB9-55C8-4D48-872C-D3E4C2DF7C11}"/>
     <cellStyle name="見出し 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 2 2" xfId="60" xr:uid="{C57FE496-5367-4549-AB34-E4F498A43C82}"/>
     <cellStyle name="見出し 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 3 2" xfId="59" xr:uid="{8DB8D3EE-2EAA-4865-AFFB-9DC7AEBF46C9}"/>
     <cellStyle name="見出し 4" xfId="17" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="見出し 4 2" xfId="62" xr:uid="{D4B3CBF4-30B9-4F95-8B6C-DD73F9C6570E}"/>
+    <cellStyle name="実績 (計画超過) 凡例" xfId="65" xr:uid="{A12E9341-F796-4E3D-A490-328C18E69C09}"/>
+    <cellStyle name="実績の凡例" xfId="67" xr:uid="{D9FDB3FB-A817-40FB-BA3D-032A2A8620FA}"/>
     <cellStyle name="集計" xfId="29" builtinId="25" customBuiltin="1"/>
     <cellStyle name="出力" xfId="22" builtinId="21" customBuiltin="1"/>
     <cellStyle name="説明文" xfId="28" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="説明文 2" xfId="71" xr:uid="{7767EF33-E764-4602-801E-CBCEC75CD931}"/>
     <cellStyle name="通貨" xfId="16" builtinId="7" customBuiltin="1"/>
     <cellStyle name="通貨 [0.00]" xfId="15" builtinId="4" customBuiltin="1"/>
     <cellStyle name="日付" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
     <cellStyle name="入力" xfId="21" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="標準 2" xfId="54" xr:uid="{360A84C2-E2D7-49D6-89D9-008AF2E942AE}"/>
+    <cellStyle name="標準 3" xfId="55" xr:uid="{BECC1004-5FD4-4939-9D1F-5643752F8F9A}"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" customBuiltin="1"/>
     <cellStyle name="名前" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
     <cellStyle name="良い" xfId="18" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1677,15 +1991,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="作業リスト" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2633,19 +2947,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
       <c r="L1" s="77" t="s">
         <v>38</v>
       </c>
@@ -4855,106 +5169,106 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="98">
+      <c r="D3" s="97"/>
+      <c r="E3" s="101">
         <v>45928</v>
       </c>
-      <c r="F3" s="98"/>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="100"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="98">
         <f>I5</f>
         <v>45929</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="98">
         <f>P5</f>
         <v>45936</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="98">
         <f>W5</f>
         <v>45943</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="98">
         <f>AD5</f>
         <v>45950</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="98">
         <f>AK5</f>
         <v>45957</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="98">
         <f>AR5</f>
         <v>45964</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="98">
         <f>AY5</f>
         <v>45971</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="99"/>
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="98">
         <f>BF5</f>
         <v>45978</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="99"/>
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="100"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -7895,17 +8209,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D41">
@@ -7923,15 +8237,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL41">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="5" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL41">
-    <cfRule type="expression" dxfId="1" priority="27">
+    <cfRule type="expression" dxfId="4" priority="27">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="28" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7981,7 +8295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2970B702-0C40-4868-A8B3-C1578AF18C64}">
   <dimension ref="A1:O328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F309" sqref="F309"/>
     </sheetView>
   </sheetViews>
@@ -7994,19 +8308,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
       <c r="L1" s="77" t="s">
         <v>38</v>
       </c>
@@ -8284,7 +8598,7 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" s="84"/>
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="93" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="86" t="s">
@@ -10512,7 +10826,7 @@
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B161" s="84"/>
-      <c r="C161" s="101" t="s">
+      <c r="C161" s="93" t="s">
         <v>48</v>
       </c>
       <c r="D161" s="86" t="s">
@@ -10530,7 +10844,7 @@
       <c r="N161" s="86"/>
       <c r="O161" s="87"/>
     </row>
-    <row r="162" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B162" s="84"/>
       <c r="C162" s="85"/>
       <c r="D162" s="86"/>
@@ -10546,7 +10860,7 @@
       <c r="N162" s="86"/>
       <c r="O162" s="87"/>
     </row>
-    <row r="163" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B163" s="84"/>
       <c r="C163" s="85"/>
       <c r="D163" s="86"/>
@@ -10562,7 +10876,7 @@
       <c r="N163" s="86"/>
       <c r="O163" s="87"/>
     </row>
-    <row r="164" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B164" s="84"/>
       <c r="C164" s="85"/>
       <c r="D164" s="86"/>
@@ -10578,7 +10892,7 @@
       <c r="N164" s="86"/>
       <c r="O164" s="87"/>
     </row>
-    <row r="165" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B165" s="84"/>
       <c r="C165" s="85"/>
       <c r="D165" s="86"/>
@@ -10594,7 +10908,7 @@
       <c r="N165" s="86"/>
       <c r="O165" s="87"/>
     </row>
-    <row r="166" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B166" s="84"/>
       <c r="C166" s="85"/>
       <c r="D166" s="86"/>
@@ -10610,7 +10924,7 @@
       <c r="N166" s="86"/>
       <c r="O166" s="87"/>
     </row>
-    <row r="167" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B167" s="84"/>
       <c r="C167" s="85"/>
       <c r="D167" s="86"/>
@@ -10626,7 +10940,7 @@
       <c r="N167" s="86"/>
       <c r="O167" s="87"/>
     </row>
-    <row r="168" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B168" s="84"/>
       <c r="C168" s="85"/>
       <c r="D168" s="86"/>
@@ -10642,7 +10956,7 @@
       <c r="N168" s="86"/>
       <c r="O168" s="87"/>
     </row>
-    <row r="169" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B169" s="84"/>
       <c r="C169" s="85"/>
       <c r="D169" s="86"/>
@@ -10658,7 +10972,7 @@
       <c r="N169" s="86"/>
       <c r="O169" s="87"/>
     </row>
-    <row r="170" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B170" s="84"/>
       <c r="C170" s="85"/>
       <c r="D170" s="86"/>
@@ -10674,7 +10988,7 @@
       <c r="N170" s="86"/>
       <c r="O170" s="87"/>
     </row>
-    <row r="171" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B171" s="84"/>
       <c r="C171" s="85"/>
       <c r="D171" s="86"/>
@@ -10690,7 +11004,7 @@
       <c r="N171" s="86"/>
       <c r="O171" s="87"/>
     </row>
-    <row r="172" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B172" s="84"/>
       <c r="C172" s="85"/>
       <c r="D172" s="86"/>
@@ -10706,7 +11020,7 @@
       <c r="N172" s="86"/>
       <c r="O172" s="87"/>
     </row>
-    <row r="173" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B173" s="84"/>
       <c r="C173" s="85"/>
       <c r="D173" s="86"/>
@@ -10722,7 +11036,7 @@
       <c r="N173" s="86"/>
       <c r="O173" s="87"/>
     </row>
-    <row r="174" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B174" s="84"/>
       <c r="C174" s="85"/>
       <c r="D174" s="86"/>
@@ -10738,7 +11052,7 @@
       <c r="N174" s="86"/>
       <c r="O174" s="87"/>
     </row>
-    <row r="175" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B175" s="84"/>
       <c r="C175" s="85"/>
       <c r="D175" s="86"/>
@@ -10754,7 +11068,7 @@
       <c r="N175" s="86"/>
       <c r="O175" s="87"/>
     </row>
-    <row r="176" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B176" s="84"/>
       <c r="C176" s="85"/>
       <c r="D176" s="86"/>
@@ -10770,7 +11084,7 @@
       <c r="N176" s="86"/>
       <c r="O176" s="87"/>
     </row>
-    <row r="177" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B177" s="84"/>
       <c r="C177" s="85"/>
       <c r="D177" s="86"/>
@@ -10786,7 +11100,7 @@
       <c r="N177" s="86"/>
       <c r="O177" s="87"/>
     </row>
-    <row r="178" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B178" s="84"/>
       <c r="C178" s="85"/>
       <c r="D178" s="86"/>
@@ -10802,7 +11116,7 @@
       <c r="N178" s="86"/>
       <c r="O178" s="87"/>
     </row>
-    <row r="179" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B179" s="84"/>
       <c r="C179" s="85"/>
       <c r="D179" s="86"/>
@@ -10818,7 +11132,7 @@
       <c r="N179" s="86"/>
       <c r="O179" s="87"/>
     </row>
-    <row r="180" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B180" s="84"/>
       <c r="C180" s="85"/>
       <c r="D180" s="86"/>
@@ -10834,7 +11148,7 @@
       <c r="N180" s="86"/>
       <c r="O180" s="87"/>
     </row>
-    <row r="181" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B181" s="84"/>
       <c r="C181" s="85"/>
       <c r="D181" s="86"/>
@@ -10850,7 +11164,7 @@
       <c r="N181" s="86"/>
       <c r="O181" s="87"/>
     </row>
-    <row r="182" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B182" s="84"/>
       <c r="C182" s="85"/>
       <c r="D182" s="86"/>
@@ -10866,7 +11180,7 @@
       <c r="N182" s="86"/>
       <c r="O182" s="87"/>
     </row>
-    <row r="183" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B183" s="84"/>
       <c r="C183" s="85"/>
       <c r="D183" s="86"/>
@@ -10882,7 +11196,7 @@
       <c r="N183" s="86"/>
       <c r="O183" s="87"/>
     </row>
-    <row r="184" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B184" s="84"/>
       <c r="C184" s="85"/>
       <c r="D184" s="86"/>
@@ -10898,7 +11212,7 @@
       <c r="N184" s="86"/>
       <c r="O184" s="87"/>
     </row>
-    <row r="185" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B185" s="84"/>
       <c r="C185" s="85"/>
       <c r="D185" s="86"/>
@@ -10914,7 +11228,7 @@
       <c r="N185" s="86"/>
       <c r="O185" s="87"/>
     </row>
-    <row r="186" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B186" s="84"/>
       <c r="C186" s="85"/>
       <c r="D186" s="86"/>
@@ -10930,7 +11244,7 @@
       <c r="N186" s="86"/>
       <c r="O186" s="87"/>
     </row>
-    <row r="187" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B187" s="84"/>
       <c r="C187" s="85"/>
       <c r="D187" s="86"/>
@@ -10946,7 +11260,7 @@
       <c r="N187" s="86"/>
       <c r="O187" s="87"/>
     </row>
-    <row r="188" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B188" s="84"/>
       <c r="C188" s="85"/>
       <c r="D188" s="86"/>
@@ -10962,7 +11276,7 @@
       <c r="N188" s="86"/>
       <c r="O188" s="87"/>
     </row>
-    <row r="189" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B189" s="84"/>
       <c r="C189" s="85"/>
       <c r="D189" s="86"/>
@@ -10978,7 +11292,7 @@
       <c r="N189" s="86"/>
       <c r="O189" s="87"/>
     </row>
-    <row r="190" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B190" s="84"/>
       <c r="C190" s="85"/>
       <c r="D190" s="86"/>
@@ -10994,7 +11308,7 @@
       <c r="N190" s="86"/>
       <c r="O190" s="87"/>
     </row>
-    <row r="191" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B191" s="84"/>
       <c r="C191" s="85"/>
       <c r="D191" s="86"/>
@@ -11010,7 +11324,7 @@
       <c r="N191" s="86"/>
       <c r="O191" s="87"/>
     </row>
-    <row r="192" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B192" s="84"/>
       <c r="C192" s="85"/>
       <c r="D192" s="86"/>
@@ -11026,7 +11340,7 @@
       <c r="N192" s="86"/>
       <c r="O192" s="87"/>
     </row>
-    <row r="193" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B193" s="84"/>
       <c r="C193" s="85"/>
       <c r="D193" s="86"/>
@@ -11042,7 +11356,7 @@
       <c r="N193" s="86"/>
       <c r="O193" s="87"/>
     </row>
-    <row r="194" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B194" s="84"/>
       <c r="C194" s="85"/>
       <c r="D194" s="86"/>
@@ -11058,7 +11372,7 @@
       <c r="N194" s="86"/>
       <c r="O194" s="87"/>
     </row>
-    <row r="195" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B195" s="84"/>
       <c r="C195" s="85"/>
       <c r="D195" s="86"/>
@@ -11074,7 +11388,7 @@
       <c r="N195" s="86"/>
       <c r="O195" s="87"/>
     </row>
-    <row r="196" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B196" s="84"/>
       <c r="C196" s="85"/>
       <c r="D196" s="86"/>
@@ -11090,7 +11404,7 @@
       <c r="N196" s="86"/>
       <c r="O196" s="87"/>
     </row>
-    <row r="197" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B197" s="84"/>
       <c r="C197" s="85"/>
       <c r="D197" s="86"/>
@@ -11106,7 +11420,7 @@
       <c r="N197" s="86"/>
       <c r="O197" s="87"/>
     </row>
-    <row r="198" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B198" s="84"/>
       <c r="C198" s="85"/>
       <c r="D198" s="86"/>
@@ -11122,7 +11436,7 @@
       <c r="N198" s="86"/>
       <c r="O198" s="87"/>
     </row>
-    <row r="199" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B199" s="84"/>
       <c r="C199" s="85"/>
       <c r="D199" s="86"/>
@@ -11138,7 +11452,7 @@
       <c r="N199" s="86"/>
       <c r="O199" s="87"/>
     </row>
-    <row r="200" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B200" s="84"/>
       <c r="C200" s="85"/>
       <c r="D200" s="86"/>
@@ -11154,7 +11468,7 @@
       <c r="N200" s="86"/>
       <c r="O200" s="87"/>
     </row>
-    <row r="201" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B201" s="84"/>
       <c r="C201" s="85"/>
       <c r="D201" s="86"/>
@@ -11170,7 +11484,7 @@
       <c r="N201" s="86"/>
       <c r="O201" s="87"/>
     </row>
-    <row r="202" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B202" s="84"/>
       <c r="C202" s="85"/>
       <c r="D202" s="86"/>
@@ -11186,7 +11500,7 @@
       <c r="N202" s="86"/>
       <c r="O202" s="87"/>
     </row>
-    <row r="203" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B203" s="84"/>
       <c r="C203" s="85"/>
       <c r="D203" s="86"/>
@@ -11202,7 +11516,7 @@
       <c r="N203" s="86"/>
       <c r="O203" s="87"/>
     </row>
-    <row r="204" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B204" s="84"/>
       <c r="C204" s="85"/>
       <c r="D204" s="86"/>
@@ -11218,7 +11532,7 @@
       <c r="N204" s="86"/>
       <c r="O204" s="87"/>
     </row>
-    <row r="205" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B205" s="84"/>
       <c r="C205" s="85"/>
       <c r="D205" s="86"/>
@@ -11234,7 +11548,7 @@
       <c r="N205" s="86"/>
       <c r="O205" s="87"/>
     </row>
-    <row r="206" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B206" s="84"/>
       <c r="C206" s="85"/>
       <c r="D206" s="86"/>
@@ -11250,7 +11564,7 @@
       <c r="N206" s="86"/>
       <c r="O206" s="87"/>
     </row>
-    <row r="207" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B207" s="84"/>
       <c r="C207" s="85"/>
       <c r="D207" s="86"/>
@@ -11266,7 +11580,7 @@
       <c r="N207" s="86"/>
       <c r="O207" s="87"/>
     </row>
-    <row r="208" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B208" s="84"/>
       <c r="C208" s="85"/>
       <c r="D208" s="86"/>
@@ -11282,7 +11596,7 @@
       <c r="N208" s="86"/>
       <c r="O208" s="87"/>
     </row>
-    <row r="209" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B209" s="84"/>
       <c r="C209" s="85"/>
       <c r="D209" s="86"/>
@@ -11298,7 +11612,7 @@
       <c r="N209" s="86"/>
       <c r="O209" s="87"/>
     </row>
-    <row r="210" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B210" s="84"/>
       <c r="C210" s="85"/>
       <c r="D210" s="86"/>
@@ -11314,7 +11628,7 @@
       <c r="N210" s="86"/>
       <c r="O210" s="87"/>
     </row>
-    <row r="211" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B211" s="84"/>
       <c r="C211" s="85"/>
       <c r="D211" s="86"/>
@@ -11330,7 +11644,7 @@
       <c r="N211" s="86"/>
       <c r="O211" s="87"/>
     </row>
-    <row r="212" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B212" s="84"/>
       <c r="C212" s="85"/>
       <c r="D212" s="86"/>
@@ -11346,7 +11660,7 @@
       <c r="N212" s="86"/>
       <c r="O212" s="87"/>
     </row>
-    <row r="213" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B213" s="84"/>
       <c r="C213" s="85"/>
       <c r="D213" s="86"/>
@@ -11362,7 +11676,7 @@
       <c r="N213" s="86"/>
       <c r="O213" s="87"/>
     </row>
-    <row r="214" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B214" s="84"/>
       <c r="C214" s="85"/>
       <c r="D214" s="86"/>
@@ -11378,7 +11692,7 @@
       <c r="N214" s="86"/>
       <c r="O214" s="87"/>
     </row>
-    <row r="215" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B215" s="84"/>
       <c r="C215" s="85"/>
       <c r="D215" s="86"/>
@@ -11394,7 +11708,7 @@
       <c r="N215" s="86"/>
       <c r="O215" s="87"/>
     </row>
-    <row r="216" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B216" s="84"/>
       <c r="C216" s="85"/>
       <c r="D216" s="86"/>
@@ -11410,7 +11724,7 @@
       <c r="N216" s="86"/>
       <c r="O216" s="87"/>
     </row>
-    <row r="217" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B217" s="84"/>
       <c r="C217" s="85"/>
       <c r="D217" s="86"/>
@@ -11426,7 +11740,7 @@
       <c r="N217" s="86"/>
       <c r="O217" s="87"/>
     </row>
-    <row r="218" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B218" s="84"/>
       <c r="C218" s="85"/>
       <c r="D218" s="86"/>
@@ -11442,7 +11756,7 @@
       <c r="N218" s="86"/>
       <c r="O218" s="87"/>
     </row>
-    <row r="219" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B219" s="84"/>
       <c r="C219" s="85"/>
       <c r="D219" s="86"/>
@@ -11458,7 +11772,7 @@
       <c r="N219" s="86"/>
       <c r="O219" s="87"/>
     </row>
-    <row r="220" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B220" s="84"/>
       <c r="C220" s="85"/>
       <c r="D220" s="86"/>
@@ -11474,7 +11788,7 @@
       <c r="N220" s="86"/>
       <c r="O220" s="87"/>
     </row>
-    <row r="221" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B221" s="84"/>
       <c r="C221" s="85"/>
       <c r="D221" s="86"/>
@@ -11490,7 +11804,7 @@
       <c r="N221" s="86"/>
       <c r="O221" s="87"/>
     </row>
-    <row r="222" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B222" s="84"/>
       <c r="C222" s="85"/>
       <c r="D222" s="86"/>
@@ -11506,7 +11820,7 @@
       <c r="N222" s="86"/>
       <c r="O222" s="87"/>
     </row>
-    <row r="223" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B223" s="84"/>
       <c r="C223" s="85"/>
       <c r="D223" s="86"/>
@@ -11522,7 +11836,7 @@
       <c r="N223" s="86"/>
       <c r="O223" s="87"/>
     </row>
-    <row r="224" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B224" s="84"/>
       <c r="C224" s="85"/>
       <c r="D224" s="86"/>
@@ -11538,7 +11852,7 @@
       <c r="N224" s="86"/>
       <c r="O224" s="87"/>
     </row>
-    <row r="225" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B225" s="84"/>
       <c r="C225" s="85"/>
       <c r="D225" s="86"/>
@@ -11554,7 +11868,7 @@
       <c r="N225" s="86"/>
       <c r="O225" s="87"/>
     </row>
-    <row r="226" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B226" s="84"/>
       <c r="C226" s="85"/>
       <c r="D226" s="86"/>
@@ -11570,7 +11884,7 @@
       <c r="N226" s="86"/>
       <c r="O226" s="87"/>
     </row>
-    <row r="227" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B227" s="84"/>
       <c r="C227" s="85"/>
       <c r="D227" s="86"/>
@@ -11586,7 +11900,7 @@
       <c r="N227" s="86"/>
       <c r="O227" s="87"/>
     </row>
-    <row r="228" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B228" s="84"/>
       <c r="C228" s="85"/>
       <c r="D228" s="86"/>
@@ -11602,7 +11916,7 @@
       <c r="N228" s="86"/>
       <c r="O228" s="87"/>
     </row>
-    <row r="229" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B229" s="84"/>
       <c r="C229" s="85"/>
       <c r="D229" s="86"/>
@@ -11618,7 +11932,7 @@
       <c r="N229" s="86"/>
       <c r="O229" s="87"/>
     </row>
-    <row r="230" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B230" s="84"/>
       <c r="C230" s="85"/>
       <c r="D230" s="86"/>
@@ -11634,7 +11948,7 @@
       <c r="N230" s="86"/>
       <c r="O230" s="87"/>
     </row>
-    <row r="231" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B231" s="84"/>
       <c r="C231" s="85"/>
       <c r="D231" s="86"/>
@@ -11650,7 +11964,7 @@
       <c r="N231" s="86"/>
       <c r="O231" s="87"/>
     </row>
-    <row r="232" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B232" s="84"/>
       <c r="C232" s="85"/>
       <c r="D232" s="86"/>
@@ -11666,7 +11980,7 @@
       <c r="N232" s="86"/>
       <c r="O232" s="87"/>
     </row>
-    <row r="233" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B233" s="84"/>
       <c r="C233" s="85"/>
       <c r="D233" s="86"/>
@@ -11682,7 +11996,7 @@
       <c r="N233" s="86"/>
       <c r="O233" s="87"/>
     </row>
-    <row r="234" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B234" s="84"/>
       <c r="C234" s="85"/>
       <c r="D234" s="86"/>
@@ -11698,7 +12012,7 @@
       <c r="N234" s="86"/>
       <c r="O234" s="87"/>
     </row>
-    <row r="235" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B235" s="84"/>
       <c r="C235" s="85"/>
       <c r="D235" s="86"/>
@@ -11714,7 +12028,7 @@
       <c r="N235" s="86"/>
       <c r="O235" s="87"/>
     </row>
-    <row r="236" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B236" s="84"/>
       <c r="C236" s="85"/>
       <c r="D236" s="86"/>
@@ -11730,7 +12044,7 @@
       <c r="N236" s="86"/>
       <c r="O236" s="87"/>
     </row>
-    <row r="237" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B237" s="84"/>
       <c r="C237" s="85"/>
       <c r="D237" s="86"/>
@@ -11746,7 +12060,7 @@
       <c r="N237" s="86"/>
       <c r="O237" s="87"/>
     </row>
-    <row r="238" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B238" s="84"/>
       <c r="C238" s="85"/>
       <c r="D238" s="86"/>
@@ -11762,7 +12076,7 @@
       <c r="N238" s="86"/>
       <c r="O238" s="87"/>
     </row>
-    <row r="239" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B239" s="84"/>
       <c r="C239" s="85"/>
       <c r="D239" s="86"/>
@@ -11778,7 +12092,7 @@
       <c r="N239" s="86"/>
       <c r="O239" s="87"/>
     </row>
-    <row r="240" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B240" s="84"/>
       <c r="C240" s="85"/>
       <c r="D240" s="86"/>
@@ -11794,7 +12108,7 @@
       <c r="N240" s="86"/>
       <c r="O240" s="87"/>
     </row>
-    <row r="241" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B241" s="84"/>
       <c r="C241" s="85"/>
       <c r="D241" s="86"/>
@@ -11810,7 +12124,7 @@
       <c r="N241" s="86"/>
       <c r="O241" s="87"/>
     </row>
-    <row r="242" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B242" s="84"/>
       <c r="C242" s="85"/>
       <c r="D242" s="86"/>
@@ -11826,7 +12140,7 @@
       <c r="N242" s="86"/>
       <c r="O242" s="87"/>
     </row>
-    <row r="243" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B243" s="84"/>
       <c r="C243" s="85"/>
       <c r="D243" s="86"/>
@@ -11842,7 +12156,7 @@
       <c r="N243" s="86"/>
       <c r="O243" s="87"/>
     </row>
-    <row r="244" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B244" s="84"/>
       <c r="C244" s="85"/>
       <c r="D244" s="86"/>
@@ -11858,7 +12172,7 @@
       <c r="N244" s="86"/>
       <c r="O244" s="87"/>
     </row>
-    <row r="245" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B245" s="84"/>
       <c r="C245" s="85"/>
       <c r="D245" s="86"/>
@@ -11874,7 +12188,7 @@
       <c r="N245" s="86"/>
       <c r="O245" s="87"/>
     </row>
-    <row r="246" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B246" s="84"/>
       <c r="C246" s="85"/>
       <c r="D246" s="86"/>
@@ -11890,7 +12204,7 @@
       <c r="N246" s="86"/>
       <c r="O246" s="87"/>
     </row>
-    <row r="247" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B247" s="84"/>
       <c r="C247" s="85"/>
       <c r="D247" s="86"/>
@@ -11906,7 +12220,7 @@
       <c r="N247" s="86"/>
       <c r="O247" s="87"/>
     </row>
-    <row r="248" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B248" s="84"/>
       <c r="C248" s="85"/>
       <c r="D248" s="86"/>
@@ -11922,7 +12236,7 @@
       <c r="N248" s="86"/>
       <c r="O248" s="87"/>
     </row>
-    <row r="249" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B249" s="84"/>
       <c r="C249" s="85"/>
       <c r="D249" s="86"/>
@@ -11938,7 +12252,7 @@
       <c r="N249" s="86"/>
       <c r="O249" s="87"/>
     </row>
-    <row r="250" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B250" s="84"/>
       <c r="C250" s="85"/>
       <c r="D250" s="86"/>
@@ -11954,7 +12268,7 @@
       <c r="N250" s="86"/>
       <c r="O250" s="87"/>
     </row>
-    <row r="251" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B251" s="84"/>
       <c r="C251" s="85"/>
       <c r="D251" s="86"/>
@@ -11970,7 +12284,7 @@
       <c r="N251" s="86"/>
       <c r="O251" s="87"/>
     </row>
-    <row r="252" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B252" s="84"/>
       <c r="C252" s="85"/>
       <c r="D252" s="86"/>
@@ -11986,7 +12300,7 @@
       <c r="N252" s="86"/>
       <c r="O252" s="87"/>
     </row>
-    <row r="253" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B253" s="84"/>
       <c r="C253" s="85"/>
       <c r="D253" s="86"/>
@@ -12002,7 +12316,7 @@
       <c r="N253" s="86"/>
       <c r="O253" s="87"/>
     </row>
-    <row r="254" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B254" s="84"/>
       <c r="C254" s="85"/>
       <c r="D254" s="86"/>
@@ -12018,7 +12332,7 @@
       <c r="N254" s="86"/>
       <c r="O254" s="87"/>
     </row>
-    <row r="255" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B255" s="84"/>
       <c r="C255" s="85"/>
       <c r="D255" s="86"/>
@@ -12034,7 +12348,7 @@
       <c r="N255" s="86"/>
       <c r="O255" s="87"/>
     </row>
-    <row r="256" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B256" s="84"/>
       <c r="C256" s="85"/>
       <c r="D256" s="86"/>
@@ -12050,7 +12364,7 @@
       <c r="N256" s="86"/>
       <c r="O256" s="87"/>
     </row>
-    <row r="257" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B257" s="84"/>
       <c r="C257" s="85"/>
       <c r="D257" s="86"/>
@@ -12066,7 +12380,7 @@
       <c r="N257" s="86"/>
       <c r="O257" s="87"/>
     </row>
-    <row r="258" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B258" s="84"/>
       <c r="C258" s="85"/>
       <c r="D258" s="86"/>
@@ -12082,7 +12396,7 @@
       <c r="N258" s="86"/>
       <c r="O258" s="87"/>
     </row>
-    <row r="259" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B259" s="84"/>
       <c r="C259" s="85"/>
       <c r="D259" s="86"/>
@@ -12098,7 +12412,7 @@
       <c r="N259" s="86"/>
       <c r="O259" s="87"/>
     </row>
-    <row r="260" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B260" s="84"/>
       <c r="C260" s="85"/>
       <c r="D260" s="86"/>
@@ -12114,7 +12428,7 @@
       <c r="N260" s="86"/>
       <c r="O260" s="87"/>
     </row>
-    <row r="261" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B261" s="84"/>
       <c r="C261" s="85"/>
       <c r="D261" s="86"/>
@@ -12130,7 +12444,7 @@
       <c r="N261" s="86"/>
       <c r="O261" s="87"/>
     </row>
-    <row r="262" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B262" s="84"/>
       <c r="C262" s="85"/>
       <c r="D262" s="86"/>
@@ -12146,7 +12460,7 @@
       <c r="N262" s="86"/>
       <c r="O262" s="87"/>
     </row>
-    <row r="263" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B263" s="84"/>
       <c r="C263" s="85"/>
       <c r="D263" s="86"/>
@@ -12162,7 +12476,7 @@
       <c r="N263" s="86"/>
       <c r="O263" s="87"/>
     </row>
-    <row r="264" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B264" s="84"/>
       <c r="C264" s="85"/>
       <c r="D264" s="86"/>
@@ -12178,7 +12492,7 @@
       <c r="N264" s="86"/>
       <c r="O264" s="87"/>
     </row>
-    <row r="265" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B265" s="84"/>
       <c r="C265" s="85"/>
       <c r="D265" s="86"/>
@@ -12194,7 +12508,7 @@
       <c r="N265" s="86"/>
       <c r="O265" s="87"/>
     </row>
-    <row r="266" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B266" s="84"/>
       <c r="C266" s="85"/>
       <c r="D266" s="86"/>
@@ -12210,7 +12524,7 @@
       <c r="N266" s="86"/>
       <c r="O266" s="87"/>
     </row>
-    <row r="267" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B267" s="84"/>
       <c r="C267" s="85"/>
       <c r="D267" s="86"/>
@@ -12226,7 +12540,7 @@
       <c r="N267" s="86"/>
       <c r="O267" s="87"/>
     </row>
-    <row r="268" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B268" s="84"/>
       <c r="C268" s="85"/>
       <c r="D268" s="86"/>
@@ -12242,7 +12556,7 @@
       <c r="N268" s="86"/>
       <c r="O268" s="87"/>
     </row>
-    <row r="269" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B269" s="84"/>
       <c r="C269" s="85"/>
       <c r="D269" s="86"/>
@@ -12258,7 +12572,7 @@
       <c r="N269" s="86"/>
       <c r="O269" s="87"/>
     </row>
-    <row r="270" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B270" s="84"/>
       <c r="C270" s="85"/>
       <c r="D270" s="86"/>
@@ -12274,7 +12588,7 @@
       <c r="N270" s="86"/>
       <c r="O270" s="87"/>
     </row>
-    <row r="271" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B271" s="84"/>
       <c r="C271" s="85"/>
       <c r="D271" s="86"/>
@@ -12290,7 +12604,7 @@
       <c r="N271" s="86"/>
       <c r="O271" s="87"/>
     </row>
-    <row r="272" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B272" s="84"/>
       <c r="C272" s="85"/>
       <c r="D272" s="86"/>
@@ -12306,7 +12620,7 @@
       <c r="N272" s="86"/>
       <c r="O272" s="87"/>
     </row>
-    <row r="273" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B273" s="84"/>
       <c r="C273" s="85"/>
       <c r="D273" s="86"/>
@@ -12322,7 +12636,7 @@
       <c r="N273" s="86"/>
       <c r="O273" s="87"/>
     </row>
-    <row r="274" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B274" s="84"/>
       <c r="C274" s="85"/>
       <c r="D274" s="86"/>
@@ -12338,7 +12652,7 @@
       <c r="N274" s="86"/>
       <c r="O274" s="87"/>
     </row>
-    <row r="275" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B275" s="84"/>
       <c r="C275" s="85"/>
       <c r="D275" s="86"/>
@@ -12354,7 +12668,7 @@
       <c r="N275" s="86"/>
       <c r="O275" s="87"/>
     </row>
-    <row r="276" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B276" s="84"/>
       <c r="C276" s="85"/>
       <c r="D276" s="86"/>
@@ -12370,7 +12684,7 @@
       <c r="N276" s="86"/>
       <c r="O276" s="87"/>
     </row>
-    <row r="277" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B277" s="84"/>
       <c r="C277" s="85"/>
       <c r="D277" s="86"/>
@@ -12386,7 +12700,7 @@
       <c r="N277" s="86"/>
       <c r="O277" s="87"/>
     </row>
-    <row r="278" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B278" s="84"/>
       <c r="C278" s="85"/>
       <c r="D278" s="86"/>
@@ -12402,7 +12716,7 @@
       <c r="N278" s="86"/>
       <c r="O278" s="87"/>
     </row>
-    <row r="279" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B279" s="84"/>
       <c r="C279" s="85"/>
       <c r="D279" s="86"/>
@@ -12418,7 +12732,7 @@
       <c r="N279" s="86"/>
       <c r="O279" s="87"/>
     </row>
-    <row r="280" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B280" s="84"/>
       <c r="C280" s="85"/>
       <c r="D280" s="86"/>
@@ -12434,7 +12748,7 @@
       <c r="N280" s="86"/>
       <c r="O280" s="87"/>
     </row>
-    <row r="281" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B281" s="84"/>
       <c r="C281" s="85"/>
       <c r="D281" s="86"/>
@@ -12450,7 +12764,7 @@
       <c r="N281" s="86"/>
       <c r="O281" s="87"/>
     </row>
-    <row r="282" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B282" s="84"/>
       <c r="C282" s="85"/>
       <c r="D282" s="86"/>
@@ -12466,7 +12780,7 @@
       <c r="N282" s="86"/>
       <c r="O282" s="87"/>
     </row>
-    <row r="283" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B283" s="84"/>
       <c r="C283" s="85"/>
       <c r="D283" s="86"/>
@@ -12482,7 +12796,7 @@
       <c r="N283" s="86"/>
       <c r="O283" s="87"/>
     </row>
-    <row r="284" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B284" s="84"/>
       <c r="C284" s="85"/>
       <c r="D284" s="86"/>
@@ -12498,7 +12812,7 @@
       <c r="N284" s="86"/>
       <c r="O284" s="87"/>
     </row>
-    <row r="285" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B285" s="84"/>
       <c r="C285" s="85"/>
       <c r="D285" s="86"/>
@@ -12514,7 +12828,7 @@
       <c r="N285" s="86"/>
       <c r="O285" s="87"/>
     </row>
-    <row r="286" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B286" s="84"/>
       <c r="C286" s="85"/>
       <c r="D286" s="86"/>
@@ -12530,7 +12844,7 @@
       <c r="N286" s="86"/>
       <c r="O286" s="87"/>
     </row>
-    <row r="287" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B287" s="84"/>
       <c r="C287" s="85"/>
       <c r="D287" s="86"/>
@@ -12546,7 +12860,7 @@
       <c r="N287" s="86"/>
       <c r="O287" s="87"/>
     </row>
-    <row r="288" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B288" s="84"/>
       <c r="C288" s="85"/>
       <c r="D288" s="86"/>
@@ -12562,7 +12876,7 @@
       <c r="N288" s="86"/>
       <c r="O288" s="87"/>
     </row>
-    <row r="289" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B289" s="84"/>
       <c r="C289" s="85"/>
       <c r="D289" s="86"/>
@@ -12578,7 +12892,7 @@
       <c r="N289" s="86"/>
       <c r="O289" s="87"/>
     </row>
-    <row r="290" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B290" s="84"/>
       <c r="C290" s="85"/>
       <c r="D290" s="86"/>
@@ -12594,7 +12908,7 @@
       <c r="N290" s="86"/>
       <c r="O290" s="87"/>
     </row>
-    <row r="291" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B291" s="84"/>
       <c r="C291" s="85"/>
       <c r="D291" s="86"/>
@@ -12610,7 +12924,7 @@
       <c r="N291" s="86"/>
       <c r="O291" s="87"/>
     </row>
-    <row r="292" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B292" s="84"/>
       <c r="C292" s="85"/>
       <c r="D292" s="86"/>
@@ -12626,7 +12940,7 @@
       <c r="N292" s="86"/>
       <c r="O292" s="87"/>
     </row>
-    <row r="293" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B293" s="84"/>
       <c r="C293" s="85"/>
       <c r="D293" s="86"/>
@@ -12642,7 +12956,7 @@
       <c r="N293" s="86"/>
       <c r="O293" s="87"/>
     </row>
-    <row r="294" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B294" s="84"/>
       <c r="C294" s="85"/>
       <c r="D294" s="86"/>
@@ -12658,7 +12972,7 @@
       <c r="N294" s="86"/>
       <c r="O294" s="87"/>
     </row>
-    <row r="295" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B295" s="84"/>
       <c r="C295" s="85"/>
       <c r="D295" s="86"/>
@@ -12674,7 +12988,7 @@
       <c r="N295" s="86"/>
       <c r="O295" s="87"/>
     </row>
-    <row r="296" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B296" s="84"/>
       <c r="C296" s="85"/>
       <c r="D296" s="86"/>
@@ -12690,7 +13004,7 @@
       <c r="N296" s="86"/>
       <c r="O296" s="87"/>
     </row>
-    <row r="297" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B297" s="84"/>
       <c r="C297" s="85"/>
       <c r="D297" s="86"/>
@@ -12706,7 +13020,7 @@
       <c r="N297" s="86"/>
       <c r="O297" s="87"/>
     </row>
-    <row r="298" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B298" s="84"/>
       <c r="C298" s="85"/>
       <c r="D298" s="86"/>
@@ -12722,7 +13036,7 @@
       <c r="N298" s="86"/>
       <c r="O298" s="87"/>
     </row>
-    <row r="299" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B299" s="84"/>
       <c r="C299" s="85"/>
       <c r="D299" s="86"/>
@@ -12738,7 +13052,7 @@
       <c r="N299" s="86"/>
       <c r="O299" s="87"/>
     </row>
-    <row r="300" spans="2:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B300" s="84"/>
       <c r="C300" s="85"/>
       <c r="D300" s="86"/>
@@ -12754,7 +13068,7 @@
       <c r="N300" s="86"/>
       <c r="O300" s="87"/>
     </row>
-    <row r="301" spans="2:15" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B301" s="84"/>
       <c r="C301" s="85"/>
       <c r="D301" s="86"/>
@@ -13212,16 +13526,3198 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E2BF87-49B8-40BC-A0C8-5FABD8DB06FE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BL44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.78515625" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.2109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.2109375" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="97"/>
+      <c r="E3" s="101">
+        <v>45914</v>
+      </c>
+      <c r="F3" s="101"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="97"/>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="98">
+        <f>I5</f>
+        <v>45915</v>
+      </c>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="98">
+        <f>P5</f>
+        <v>45922</v>
+      </c>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="98">
+        <f>W5</f>
+        <v>45929</v>
+      </c>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="98">
+        <f>AD5</f>
+        <v>45936</v>
+      </c>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="98">
+        <f>AK5</f>
+        <v>45943</v>
+      </c>
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="98">
+        <f>AR5</f>
+        <v>45950</v>
+      </c>
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="98">
+        <f>AY5</f>
+        <v>45957</v>
+      </c>
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="99"/>
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="98">
+        <f>BF5</f>
+        <v>45964</v>
+      </c>
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="99"/>
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="100"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="I5" s="74">
+        <f>プロジェクトの開始-WEEKDAY(プロジェクトの開始,1)+2+7*(週表示-1)</f>
+        <v>45915</v>
+      </c>
+      <c r="J5" s="75">
+        <f>I5+1</f>
+        <v>45916</v>
+      </c>
+      <c r="K5" s="75">
+        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+        <v>45917</v>
+      </c>
+      <c r="L5" s="75">
+        <f t="shared" si="0"/>
+        <v>45918</v>
+      </c>
+      <c r="M5" s="75">
+        <f t="shared" si="0"/>
+        <v>45919</v>
+      </c>
+      <c r="N5" s="75">
+        <f t="shared" si="0"/>
+        <v>45920</v>
+      </c>
+      <c r="O5" s="76">
+        <f t="shared" si="0"/>
+        <v>45921</v>
+      </c>
+      <c r="P5" s="74">
+        <f>O5+1</f>
+        <v>45922</v>
+      </c>
+      <c r="Q5" s="75">
+        <f>P5+1</f>
+        <v>45923</v>
+      </c>
+      <c r="R5" s="75">
+        <f t="shared" si="0"/>
+        <v>45924</v>
+      </c>
+      <c r="S5" s="75">
+        <f t="shared" si="0"/>
+        <v>45925</v>
+      </c>
+      <c r="T5" s="75">
+        <f t="shared" si="0"/>
+        <v>45926</v>
+      </c>
+      <c r="U5" s="75">
+        <f t="shared" si="0"/>
+        <v>45927</v>
+      </c>
+      <c r="V5" s="76">
+        <f t="shared" si="0"/>
+        <v>45928</v>
+      </c>
+      <c r="W5" s="74">
+        <f>V5+1</f>
+        <v>45929</v>
+      </c>
+      <c r="X5" s="75">
+        <f>W5+1</f>
+        <v>45930</v>
+      </c>
+      <c r="Y5" s="75">
+        <f t="shared" si="0"/>
+        <v>45931</v>
+      </c>
+      <c r="Z5" s="75">
+        <f t="shared" si="0"/>
+        <v>45932</v>
+      </c>
+      <c r="AA5" s="75">
+        <f t="shared" si="0"/>
+        <v>45933</v>
+      </c>
+      <c r="AB5" s="75">
+        <f t="shared" si="0"/>
+        <v>45934</v>
+      </c>
+      <c r="AC5" s="76">
+        <f t="shared" si="0"/>
+        <v>45935</v>
+      </c>
+      <c r="AD5" s="74">
+        <f>AC5+1</f>
+        <v>45936</v>
+      </c>
+      <c r="AE5" s="75">
+        <f>AD5+1</f>
+        <v>45937</v>
+      </c>
+      <c r="AF5" s="75">
+        <f t="shared" si="0"/>
+        <v>45938</v>
+      </c>
+      <c r="AG5" s="75">
+        <f t="shared" si="0"/>
+        <v>45939</v>
+      </c>
+      <c r="AH5" s="75">
+        <f t="shared" si="0"/>
+        <v>45940</v>
+      </c>
+      <c r="AI5" s="75">
+        <f t="shared" si="0"/>
+        <v>45941</v>
+      </c>
+      <c r="AJ5" s="76">
+        <f t="shared" si="0"/>
+        <v>45942</v>
+      </c>
+      <c r="AK5" s="74">
+        <f>AJ5+1</f>
+        <v>45943</v>
+      </c>
+      <c r="AL5" s="75">
+        <f>AK5+1</f>
+        <v>45944</v>
+      </c>
+      <c r="AM5" s="75">
+        <f t="shared" si="0"/>
+        <v>45945</v>
+      </c>
+      <c r="AN5" s="75">
+        <f t="shared" si="0"/>
+        <v>45946</v>
+      </c>
+      <c r="AO5" s="75">
+        <f t="shared" si="0"/>
+        <v>45947</v>
+      </c>
+      <c r="AP5" s="75">
+        <f t="shared" si="0"/>
+        <v>45948</v>
+      </c>
+      <c r="AQ5" s="76">
+        <f t="shared" si="0"/>
+        <v>45949</v>
+      </c>
+      <c r="AR5" s="74">
+        <f>AQ5+1</f>
+        <v>45950</v>
+      </c>
+      <c r="AS5" s="75">
+        <f>AR5+1</f>
+        <v>45951</v>
+      </c>
+      <c r="AT5" s="75">
+        <f t="shared" si="0"/>
+        <v>45952</v>
+      </c>
+      <c r="AU5" s="75">
+        <f t="shared" si="0"/>
+        <v>45953</v>
+      </c>
+      <c r="AV5" s="75">
+        <f t="shared" si="0"/>
+        <v>45954</v>
+      </c>
+      <c r="AW5" s="75">
+        <f t="shared" si="0"/>
+        <v>45955</v>
+      </c>
+      <c r="AX5" s="76">
+        <f t="shared" si="0"/>
+        <v>45956</v>
+      </c>
+      <c r="AY5" s="74">
+        <f>AX5+1</f>
+        <v>45957</v>
+      </c>
+      <c r="AZ5" s="75">
+        <f>AY5+1</f>
+        <v>45958</v>
+      </c>
+      <c r="BA5" s="75">
+        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
+        <v>45959</v>
+      </c>
+      <c r="BB5" s="75">
+        <f t="shared" si="1"/>
+        <v>45960</v>
+      </c>
+      <c r="BC5" s="75">
+        <f t="shared" si="1"/>
+        <v>45961</v>
+      </c>
+      <c r="BD5" s="75">
+        <f t="shared" si="1"/>
+        <v>45962</v>
+      </c>
+      <c r="BE5" s="76">
+        <f t="shared" si="1"/>
+        <v>45963</v>
+      </c>
+      <c r="BF5" s="74">
+        <f>BE5+1</f>
+        <v>45964</v>
+      </c>
+      <c r="BG5" s="75">
+        <f>BF5+1</f>
+        <v>45965</v>
+      </c>
+      <c r="BH5" s="75">
+        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
+        <v>45966</v>
+      </c>
+      <c r="BI5" s="75">
+        <f t="shared" si="2"/>
+        <v>45967</v>
+      </c>
+      <c r="BJ5" s="75">
+        <f t="shared" si="2"/>
+        <v>45968</v>
+      </c>
+      <c r="BK5" s="75">
+        <f t="shared" si="2"/>
+        <v>45969</v>
+      </c>
+      <c r="BL5" s="76">
+        <f t="shared" si="2"/>
+        <v>45970</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="37" t="str">
+        <f t="shared" ref="I6:BL6" si="3">LEFT(TEXT(I5,"aaa"),1)</f>
+        <v>月</v>
+      </c>
+      <c r="J6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>火</v>
+      </c>
+      <c r="K6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>水</v>
+      </c>
+      <c r="L6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>木</v>
+      </c>
+      <c r="M6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>金</v>
+      </c>
+      <c r="N6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>土</v>
+      </c>
+      <c r="O6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>日</v>
+      </c>
+      <c r="P6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>月</v>
+      </c>
+      <c r="Q6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>火</v>
+      </c>
+      <c r="R6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>水</v>
+      </c>
+      <c r="S6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>木</v>
+      </c>
+      <c r="T6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>金</v>
+      </c>
+      <c r="U6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>土</v>
+      </c>
+      <c r="V6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>日</v>
+      </c>
+      <c r="W6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>月</v>
+      </c>
+      <c r="X6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>火</v>
+      </c>
+      <c r="Y6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>水</v>
+      </c>
+      <c r="Z6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>木</v>
+      </c>
+      <c r="AA6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>金</v>
+      </c>
+      <c r="AB6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>土</v>
+      </c>
+      <c r="AC6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>日</v>
+      </c>
+      <c r="AD6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>月</v>
+      </c>
+      <c r="AE6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>火</v>
+      </c>
+      <c r="AF6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>水</v>
+      </c>
+      <c r="AG6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>木</v>
+      </c>
+      <c r="AH6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>金</v>
+      </c>
+      <c r="AI6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>土</v>
+      </c>
+      <c r="AJ6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>日</v>
+      </c>
+      <c r="AK6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>月</v>
+      </c>
+      <c r="AL6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>火</v>
+      </c>
+      <c r="AM6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>水</v>
+      </c>
+      <c r="AN6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>木</v>
+      </c>
+      <c r="AO6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>金</v>
+      </c>
+      <c r="AP6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>土</v>
+      </c>
+      <c r="AQ6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>日</v>
+      </c>
+      <c r="AR6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>月</v>
+      </c>
+      <c r="AS6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>火</v>
+      </c>
+      <c r="AT6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>水</v>
+      </c>
+      <c r="AU6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>木</v>
+      </c>
+      <c r="AV6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>金</v>
+      </c>
+      <c r="AW6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>土</v>
+      </c>
+      <c r="AX6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>日</v>
+      </c>
+      <c r="AY6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>月</v>
+      </c>
+      <c r="AZ6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>火</v>
+      </c>
+      <c r="BA6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>水</v>
+      </c>
+      <c r="BB6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>木</v>
+      </c>
+      <c r="BC6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>金</v>
+      </c>
+      <c r="BD6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>土</v>
+      </c>
+      <c r="BE6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>日</v>
+      </c>
+      <c r="BF6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>月</v>
+      </c>
+      <c r="BG6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>火</v>
+      </c>
+      <c r="BH6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>水</v>
+      </c>
+      <c r="BI6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>木</v>
+      </c>
+      <c r="BJ6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>金</v>
+      </c>
+      <c r="BK6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>土</v>
+      </c>
+      <c r="BL6" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>日</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="E7"/>
+      <c r="H7" t="str">
+        <f>IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <v/>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="5"/>
+      <c r="BH7" s="5"/>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="5"/>
+      <c r="BL7" s="5"/>
+    </row>
+    <row r="8" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40" t="str">
+        <f t="shared" ref="H8:H41" si="4">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <v/>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="5"/>
+      <c r="BG8" s="5"/>
+      <c r="BH8" s="5"/>
+      <c r="BI8" s="5"/>
+      <c r="BJ8" s="5"/>
+      <c r="BK8" s="5"/>
+      <c r="BL8" s="5"/>
+    </row>
+    <row r="9" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9"/>
+      <c r="B9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="41">
+        <v>0</v>
+      </c>
+      <c r="E9" s="61">
+        <v>45914</v>
+      </c>
+      <c r="F9" s="61">
+        <v>45927</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="5"/>
+      <c r="BC9" s="5"/>
+      <c r="BD9" s="5"/>
+      <c r="BE9" s="5"/>
+      <c r="BF9" s="5"/>
+      <c r="BG9" s="5"/>
+      <c r="BH9" s="5"/>
+      <c r="BI9" s="5"/>
+      <c r="BJ9" s="5"/>
+      <c r="BK9" s="5"/>
+      <c r="BL9" s="5"/>
+    </row>
+    <row r="10" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="9"/>
+      <c r="B10" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="41">
+        <v>0</v>
+      </c>
+      <c r="E10" s="61">
+        <v>45928</v>
+      </c>
+      <c r="F10" s="61">
+        <v>45928</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="5"/>
+      <c r="BD10" s="5"/>
+      <c r="BE10" s="5"/>
+      <c r="BF10" s="5"/>
+      <c r="BG10" s="5"/>
+      <c r="BH10" s="5"/>
+      <c r="BI10" s="5"/>
+      <c r="BJ10" s="5"/>
+      <c r="BK10" s="5"/>
+      <c r="BL10" s="5"/>
+    </row>
+    <row r="11" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="9"/>
+      <c r="B11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="41">
+        <v>0</v>
+      </c>
+      <c r="E11" s="61">
+        <v>45928</v>
+      </c>
+      <c r="F11" s="61">
+        <v>45928</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="5"/>
+      <c r="BE11" s="5"/>
+      <c r="BF11" s="5"/>
+      <c r="BG11" s="5"/>
+      <c r="BH11" s="5"/>
+      <c r="BI11" s="5"/>
+      <c r="BJ11" s="5"/>
+      <c r="BK11" s="5"/>
+      <c r="BL11" s="5"/>
+    </row>
+    <row r="12" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
+      <c r="BF12" s="5"/>
+      <c r="BG12" s="5"/>
+      <c r="BH12" s="5"/>
+      <c r="BI12" s="5"/>
+      <c r="BJ12" s="5"/>
+      <c r="BK12" s="5"/>
+      <c r="BL12" s="5"/>
+    </row>
+    <row r="13" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="9"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5"/>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="5"/>
+      <c r="BF13" s="5"/>
+      <c r="BG13" s="5"/>
+      <c r="BH13" s="5"/>
+      <c r="BI13" s="5"/>
+      <c r="BJ13" s="5"/>
+      <c r="BK13" s="5"/>
+      <c r="BL13" s="5"/>
+    </row>
+    <row r="14" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
+      <c r="BE14" s="5"/>
+      <c r="BF14" s="5"/>
+      <c r="BG14" s="5"/>
+      <c r="BH14" s="5"/>
+      <c r="BI14" s="5"/>
+      <c r="BJ14" s="5"/>
+      <c r="BK14" s="5"/>
+      <c r="BL14" s="5"/>
+    </row>
+    <row r="15" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
+      <c r="BE15" s="5"/>
+      <c r="BF15" s="5"/>
+      <c r="BG15" s="5"/>
+      <c r="BH15" s="5"/>
+      <c r="BI15" s="5"/>
+      <c r="BJ15" s="5"/>
+      <c r="BK15" s="5"/>
+      <c r="BL15" s="5"/>
+    </row>
+    <row r="16" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="8"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="5"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="5"/>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="5"/>
+      <c r="BB16" s="5"/>
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="5"/>
+      <c r="BE16" s="5"/>
+      <c r="BF16" s="5"/>
+      <c r="BG16" s="5"/>
+      <c r="BH16" s="5"/>
+      <c r="BI16" s="5"/>
+      <c r="BJ16" s="5"/>
+      <c r="BK16" s="5"/>
+      <c r="BL16" s="5"/>
+    </row>
+    <row r="17" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="5"/>
+      <c r="AZ17" s="5"/>
+      <c r="BA17" s="5"/>
+      <c r="BB17" s="5"/>
+      <c r="BC17" s="5"/>
+      <c r="BD17" s="5"/>
+      <c r="BE17" s="5"/>
+      <c r="BF17" s="5"/>
+      <c r="BG17" s="5"/>
+      <c r="BH17" s="5"/>
+      <c r="BI17" s="5"/>
+      <c r="BJ17" s="5"/>
+      <c r="BK17" s="5"/>
+      <c r="BL17" s="5"/>
+    </row>
+    <row r="18" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="9"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="5"/>
+      <c r="BA18" s="5"/>
+      <c r="BB18" s="5"/>
+      <c r="BC18" s="5"/>
+      <c r="BD18" s="5"/>
+      <c r="BE18" s="5"/>
+      <c r="BF18" s="5"/>
+      <c r="BG18" s="5"/>
+      <c r="BH18" s="5"/>
+      <c r="BI18" s="5"/>
+      <c r="BJ18" s="5"/>
+      <c r="BK18" s="5"/>
+      <c r="BL18" s="5"/>
+    </row>
+    <row r="19" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="5"/>
+      <c r="BA19" s="5"/>
+      <c r="BB19" s="5"/>
+      <c r="BC19" s="5"/>
+      <c r="BD19" s="5"/>
+      <c r="BE19" s="5"/>
+      <c r="BF19" s="5"/>
+      <c r="BG19" s="5"/>
+      <c r="BH19" s="5"/>
+      <c r="BI19" s="5"/>
+      <c r="BJ19" s="5"/>
+      <c r="BK19" s="5"/>
+      <c r="BL19" s="5"/>
+    </row>
+    <row r="20" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="5"/>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="5"/>
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="5"/>
+      <c r="BA20" s="5"/>
+      <c r="BB20" s="5"/>
+      <c r="BC20" s="5"/>
+      <c r="BD20" s="5"/>
+      <c r="BE20" s="5"/>
+      <c r="BF20" s="5"/>
+      <c r="BG20" s="5"/>
+      <c r="BH20" s="5"/>
+      <c r="BI20" s="5"/>
+      <c r="BJ20" s="5"/>
+      <c r="BK20" s="5"/>
+      <c r="BL20" s="5"/>
+    </row>
+    <row r="21" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="5"/>
+      <c r="AX21" s="5"/>
+      <c r="AY21" s="5"/>
+      <c r="AZ21" s="5"/>
+      <c r="BA21" s="5"/>
+      <c r="BB21" s="5"/>
+      <c r="BC21" s="5"/>
+      <c r="BD21" s="5"/>
+      <c r="BE21" s="5"/>
+      <c r="BF21" s="5"/>
+      <c r="BG21" s="5"/>
+      <c r="BH21" s="5"/>
+      <c r="BI21" s="5"/>
+      <c r="BJ21" s="5"/>
+      <c r="BK21" s="5"/>
+      <c r="BL21" s="5"/>
+    </row>
+    <row r="22" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
+      <c r="AZ22" s="5"/>
+      <c r="BA22" s="5"/>
+      <c r="BB22" s="5"/>
+      <c r="BC22" s="5"/>
+      <c r="BD22" s="5"/>
+      <c r="BE22" s="5"/>
+      <c r="BF22" s="5"/>
+      <c r="BG22" s="5"/>
+      <c r="BH22" s="5"/>
+      <c r="BI22" s="5"/>
+      <c r="BJ22" s="5"/>
+      <c r="BK22" s="5"/>
+      <c r="BL22" s="5"/>
+    </row>
+    <row r="23" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="8"/>
+      <c r="B23" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="5"/>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="5"/>
+      <c r="BE23" s="5"/>
+      <c r="BF23" s="5"/>
+      <c r="BG23" s="5"/>
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="5"/>
+      <c r="BJ23" s="5"/>
+      <c r="BK23" s="5"/>
+      <c r="BL23" s="5"/>
+    </row>
+    <row r="24" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="5"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="5"/>
+      <c r="BF24" s="5"/>
+      <c r="BG24" s="5"/>
+      <c r="BH24" s="5"/>
+      <c r="BI24" s="5"/>
+      <c r="BJ24" s="5"/>
+      <c r="BK24" s="5"/>
+      <c r="BL24" s="5"/>
+    </row>
+    <row r="25" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="8"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="5"/>
+      <c r="AU25" s="5"/>
+      <c r="AV25" s="5"/>
+      <c r="AW25" s="5"/>
+      <c r="AX25" s="5"/>
+      <c r="AY25" s="5"/>
+      <c r="AZ25" s="5"/>
+      <c r="BA25" s="5"/>
+      <c r="BB25" s="5"/>
+      <c r="BC25" s="5"/>
+      <c r="BD25" s="5"/>
+      <c r="BE25" s="5"/>
+      <c r="BF25" s="5"/>
+      <c r="BG25" s="5"/>
+      <c r="BH25" s="5"/>
+      <c r="BI25" s="5"/>
+      <c r="BJ25" s="5"/>
+      <c r="BK25" s="5"/>
+      <c r="BL25" s="5"/>
+    </row>
+    <row r="26" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="8"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="5"/>
+      <c r="AU26" s="5"/>
+      <c r="AV26" s="5"/>
+      <c r="AW26" s="5"/>
+      <c r="AX26" s="5"/>
+      <c r="AY26" s="5"/>
+      <c r="AZ26" s="5"/>
+      <c r="BA26" s="5"/>
+      <c r="BB26" s="5"/>
+      <c r="BC26" s="5"/>
+      <c r="BD26" s="5"/>
+      <c r="BE26" s="5"/>
+      <c r="BF26" s="5"/>
+      <c r="BG26" s="5"/>
+      <c r="BH26" s="5"/>
+      <c r="BI26" s="5"/>
+      <c r="BJ26" s="5"/>
+      <c r="BK26" s="5"/>
+      <c r="BL26" s="5"/>
+    </row>
+    <row r="27" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="8"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="5"/>
+      <c r="AU27" s="5"/>
+      <c r="AV27" s="5"/>
+      <c r="AW27" s="5"/>
+      <c r="AX27" s="5"/>
+      <c r="AY27" s="5"/>
+      <c r="AZ27" s="5"/>
+      <c r="BA27" s="5"/>
+      <c r="BB27" s="5"/>
+      <c r="BC27" s="5"/>
+      <c r="BD27" s="5"/>
+      <c r="BE27" s="5"/>
+      <c r="BF27" s="5"/>
+      <c r="BG27" s="5"/>
+      <c r="BH27" s="5"/>
+      <c r="BI27" s="5"/>
+      <c r="BJ27" s="5"/>
+      <c r="BK27" s="5"/>
+      <c r="BL27" s="5"/>
+    </row>
+    <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="5"/>
+      <c r="BG28" s="5"/>
+      <c r="BH28" s="5"/>
+      <c r="BI28" s="5"/>
+      <c r="BJ28" s="5"/>
+      <c r="BK28" s="5"/>
+      <c r="BL28" s="5"/>
+    </row>
+    <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="8"/>
+      <c r="B29" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="5"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="5"/>
+      <c r="BG29" s="5"/>
+      <c r="BH29" s="5"/>
+      <c r="BI29" s="5"/>
+      <c r="BJ29" s="5"/>
+      <c r="BK29" s="5"/>
+      <c r="BL29" s="5"/>
+    </row>
+    <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="8"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="5"/>
+      <c r="AS30" s="5"/>
+      <c r="AT30" s="5"/>
+      <c r="AU30" s="5"/>
+      <c r="AV30" s="5"/>
+      <c r="AW30" s="5"/>
+      <c r="AX30" s="5"/>
+      <c r="AY30" s="5"/>
+      <c r="AZ30" s="5"/>
+      <c r="BA30" s="5"/>
+      <c r="BB30" s="5"/>
+      <c r="BC30" s="5"/>
+      <c r="BD30" s="5"/>
+      <c r="BE30" s="5"/>
+      <c r="BF30" s="5"/>
+      <c r="BG30" s="5"/>
+      <c r="BH30" s="5"/>
+      <c r="BI30" s="5"/>
+      <c r="BJ30" s="5"/>
+      <c r="BK30" s="5"/>
+      <c r="BL30" s="5"/>
+    </row>
+    <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="8"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="5"/>
+      <c r="AS31" s="5"/>
+      <c r="AT31" s="5"/>
+      <c r="AU31" s="5"/>
+      <c r="AV31" s="5"/>
+      <c r="AW31" s="5"/>
+      <c r="AX31" s="5"/>
+      <c r="AY31" s="5"/>
+      <c r="AZ31" s="5"/>
+      <c r="BA31" s="5"/>
+      <c r="BB31" s="5"/>
+      <c r="BC31" s="5"/>
+      <c r="BD31" s="5"/>
+      <c r="BE31" s="5"/>
+      <c r="BF31" s="5"/>
+      <c r="BG31" s="5"/>
+      <c r="BH31" s="5"/>
+      <c r="BI31" s="5"/>
+      <c r="BJ31" s="5"/>
+      <c r="BK31" s="5"/>
+      <c r="BL31" s="5"/>
+    </row>
+    <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="8"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="5"/>
+      <c r="AT32" s="5"/>
+      <c r="AU32" s="5"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="5"/>
+      <c r="AX32" s="5"/>
+      <c r="AY32" s="5"/>
+      <c r="AZ32" s="5"/>
+      <c r="BA32" s="5"/>
+      <c r="BB32" s="5"/>
+      <c r="BC32" s="5"/>
+      <c r="BD32" s="5"/>
+      <c r="BE32" s="5"/>
+      <c r="BF32" s="5"/>
+      <c r="BG32" s="5"/>
+      <c r="BH32" s="5"/>
+      <c r="BI32" s="5"/>
+      <c r="BJ32" s="5"/>
+      <c r="BK32" s="5"/>
+      <c r="BL32" s="5"/>
+    </row>
+    <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="8"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="5"/>
+      <c r="BG33" s="5"/>
+      <c r="BH33" s="5"/>
+      <c r="BI33" s="5"/>
+      <c r="BJ33" s="5"/>
+      <c r="BK33" s="5"/>
+      <c r="BL33" s="5"/>
+    </row>
+    <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="5"/>
+      <c r="BG34" s="5"/>
+      <c r="BH34" s="5"/>
+      <c r="BI34" s="5"/>
+      <c r="BJ34" s="5"/>
+      <c r="BK34" s="5"/>
+      <c r="BL34" s="5"/>
+    </row>
+    <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="5"/>
+      <c r="AU35" s="5"/>
+      <c r="AV35" s="5"/>
+      <c r="AW35" s="5"/>
+      <c r="AX35" s="5"/>
+      <c r="AY35" s="5"/>
+      <c r="AZ35" s="5"/>
+      <c r="BA35" s="5"/>
+      <c r="BB35" s="5"/>
+      <c r="BC35" s="5"/>
+      <c r="BD35" s="5"/>
+      <c r="BE35" s="5"/>
+      <c r="BF35" s="5"/>
+      <c r="BG35" s="5"/>
+      <c r="BH35" s="5"/>
+      <c r="BI35" s="5"/>
+      <c r="BJ35" s="5"/>
+      <c r="BK35" s="5"/>
+      <c r="BL35" s="5"/>
+    </row>
+    <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="5"/>
+      <c r="AU36" s="5"/>
+      <c r="AV36" s="5"/>
+      <c r="AW36" s="5"/>
+      <c r="AX36" s="5"/>
+      <c r="AY36" s="5"/>
+      <c r="AZ36" s="5"/>
+      <c r="BA36" s="5"/>
+      <c r="BB36" s="5"/>
+      <c r="BC36" s="5"/>
+      <c r="BD36" s="5"/>
+      <c r="BE36" s="5"/>
+      <c r="BF36" s="5"/>
+      <c r="BG36" s="5"/>
+      <c r="BH36" s="5"/>
+      <c r="BI36" s="5"/>
+      <c r="BJ36" s="5"/>
+      <c r="BK36" s="5"/>
+      <c r="BL36" s="5"/>
+    </row>
+    <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="8"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+      <c r="AQ37" s="5"/>
+      <c r="AR37" s="5"/>
+      <c r="AS37" s="5"/>
+      <c r="AT37" s="5"/>
+      <c r="AU37" s="5"/>
+      <c r="AV37" s="5"/>
+      <c r="AW37" s="5"/>
+      <c r="AX37" s="5"/>
+      <c r="AY37" s="5"/>
+      <c r="AZ37" s="5"/>
+      <c r="BA37" s="5"/>
+      <c r="BB37" s="5"/>
+      <c r="BC37" s="5"/>
+      <c r="BD37" s="5"/>
+      <c r="BE37" s="5"/>
+      <c r="BF37" s="5"/>
+      <c r="BG37" s="5"/>
+      <c r="BH37" s="5"/>
+      <c r="BI37" s="5"/>
+      <c r="BJ37" s="5"/>
+      <c r="BK37" s="5"/>
+      <c r="BL37" s="5"/>
+    </row>
+    <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="8"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="5"/>
+      <c r="AS38" s="5"/>
+      <c r="AT38" s="5"/>
+      <c r="AU38" s="5"/>
+      <c r="AV38" s="5"/>
+      <c r="AW38" s="5"/>
+      <c r="AX38" s="5"/>
+      <c r="AY38" s="5"/>
+      <c r="AZ38" s="5"/>
+      <c r="BA38" s="5"/>
+      <c r="BB38" s="5"/>
+      <c r="BC38" s="5"/>
+      <c r="BD38" s="5"/>
+      <c r="BE38" s="5"/>
+      <c r="BF38" s="5"/>
+      <c r="BG38" s="5"/>
+      <c r="BH38" s="5"/>
+      <c r="BI38" s="5"/>
+      <c r="BJ38" s="5"/>
+      <c r="BK38" s="5"/>
+      <c r="BL38" s="5"/>
+    </row>
+    <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="8"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="5"/>
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="5"/>
+      <c r="AV39" s="5"/>
+      <c r="AW39" s="5"/>
+      <c r="AX39" s="5"/>
+      <c r="AY39" s="5"/>
+      <c r="AZ39" s="5"/>
+      <c r="BA39" s="5"/>
+      <c r="BB39" s="5"/>
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="5"/>
+      <c r="BE39" s="5"/>
+      <c r="BF39" s="5"/>
+      <c r="BG39" s="5"/>
+      <c r="BH39" s="5"/>
+      <c r="BI39" s="5"/>
+      <c r="BJ39" s="5"/>
+      <c r="BK39" s="5"/>
+      <c r="BL39" s="5"/>
+    </row>
+    <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="5"/>
+      <c r="BA40" s="5"/>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="5"/>
+      <c r="BE40" s="5"/>
+      <c r="BF40" s="5"/>
+      <c r="BG40" s="5"/>
+      <c r="BH40" s="5"/>
+      <c r="BI40" s="5"/>
+      <c r="BJ40" s="5"/>
+      <c r="BK40" s="5"/>
+      <c r="BL40" s="5"/>
+    </row>
+    <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="53"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+      <c r="AP41" s="7"/>
+      <c r="AQ41" s="7"/>
+      <c r="AR41" s="7"/>
+      <c r="AS41" s="7"/>
+      <c r="AT41" s="7"/>
+      <c r="AU41" s="7"/>
+      <c r="AV41" s="7"/>
+      <c r="AW41" s="7"/>
+      <c r="AX41" s="7"/>
+      <c r="AY41" s="7"/>
+      <c r="AZ41" s="7"/>
+      <c r="BA41" s="7"/>
+      <c r="BB41" s="7"/>
+      <c r="BC41" s="7"/>
+      <c r="BD41" s="7"/>
+      <c r="BE41" s="7"/>
+      <c r="BF41" s="7"/>
+      <c r="BG41" s="7"/>
+      <c r="BH41" s="7"/>
+      <c r="BI41" s="7"/>
+      <c r="BJ41" s="7"/>
+      <c r="BK41" s="7"/>
+      <c r="BL41" s="7"/>
+    </row>
+    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="56"/>
+      <c r="F43" s="57"/>
+    </row>
+    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+  </mergeCells>
+  <phoneticPr fontId="29"/>
+  <conditionalFormatting sqref="D7:D41">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{321828D0-828E-410D-A4D6-29340648C979}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:BL41">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:BL41">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="週表示" prompt="この数字を変更すると、ガント チャート ビューがスクロールされます。" sqref="E4" xr:uid="{4574A6CA-BF8C-4637-9C83-21B5A0404C6D}">
+      <formula1>1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{4880963E-E076-408B-95D2-B2FA66EF4F2D}"/>
+    <hyperlink ref="I1" r:id="rId2" xr:uid="{2AE05372-A580-42FF-9638-A210CD1ED16A}"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <headerFooter differentFirst="1" scaleWithDoc="0">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="40" max="16383" man="1"/>
+  </rowBreaks>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{321828D0-828E-410D-A4D6-29340648C979}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D7:D41</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13509,6 +17005,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -13530,14 +17035,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13558,6 +17055,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
